--- a/biology/Médecine/Gerresheimer/Gerresheimer.xlsx
+++ b/biology/Médecine/Gerresheimer/Gerresheimer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gerresheimer AG est une entreprise d'emballage primaire en verre allemande faisant partie du MDAX.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant même la réalisation de la fusion pour créer le groupe E.ON, Viag annonce la vente de 72,96 % de Gerresheimer à Investcorp pour 210 millions d'euros[3].
-En mai 2024, Gerresheimer annonce l'acquisition de Blitz LuxCo, spécialisée dans les emballages en verre, pour 800 millions d'euros[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant même la réalisation de la fusion pour créer le groupe E.ON, Viag annonce la vente de 72,96 % de Gerresheimer à Investcorp pour 210 millions d'euros.
+En mai 2024, Gerresheimer annonce l'acquisition de Blitz LuxCo, spécialisée dans les emballages en verre, pour 800 millions d'euros.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Implantations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entreprise est présente dans 47 sites dans 16 pays en Europe, Asie et Amérique Latine.
 </t>
